--- a/Testing Artifacts/Testing artifacts.xlsx
+++ b/Testing Artifacts/Testing artifacts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prath\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Group_C-universal-testing-machine\Testing Artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Test case description</t>
-  </si>
-  <si>
-    <t>Expected behaviour</t>
   </si>
   <si>
     <t>Result</t>
@@ -93,9 +90,6 @@
     <t>Number should be rounded so that first few decimal places are shown</t>
   </si>
   <si>
-    <t>Last few digits are shown,which is useless</t>
-  </si>
-  <si>
     <t>Input is too big (even before decimal point)</t>
   </si>
   <si>
@@ -109,12 +103,6 @@
   </si>
   <si>
     <t>Initial distance input</t>
-  </si>
-  <si>
-    <t>Currently, there is no use for it. so it should be removed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redundant input box </t>
   </si>
   <si>
     <t>Speed slider input</t>
@@ -264,9 +252,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Can't test because laod cell is not working right now</t>
-  </si>
-  <si>
     <t>Live panel</t>
   </si>
   <si>
@@ -295,9 +280,6 @@
   </si>
   <si>
     <t>Display of current cycle in manual mode</t>
-  </si>
-  <si>
-    <t>Current cycle is not relavent to manual mode , so it should be hidden</t>
   </si>
   <si>
     <t>Shows '0' , which is not really wrong but it would be better to hide the field entirely</t>
@@ -381,31 +363,10 @@
     <t>Exported at the end of the process</t>
   </si>
   <si>
-    <t>Export table just after starting the program without choosing any mode</t>
-  </si>
-  <si>
-    <t>Export button should not be shown without choosing any mode</t>
-  </si>
-  <si>
-    <t>Export button is shown without choosing any mode and clicking on it generates empty exel file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Export table just after clicking on reset </t>
-  </si>
-  <si>
-    <t>Clicking on reset should hide the export button as there is not data to export . it should only be made visible after user chooses the mode</t>
-  </si>
-  <si>
     <t>Python script</t>
   </si>
   <si>
-    <t xml:space="preserve">Running the python script </t>
-  </si>
-  <si>
     <t>Combined log files and graphs should be created</t>
-  </si>
-  <si>
-    <t>Running python scripts without input files existing</t>
   </si>
   <si>
     <t>Script should detect nonexisting files and tell user to have input files</t>
@@ -413,12 +374,48 @@
   <si>
     <t>Script fails due to an FileNotFound error</t>
   </si>
+  <si>
+    <t xml:space="preserve">Export table just after starting the program without choosing any mode or just after clicking on reset </t>
+  </si>
+  <si>
+    <t>Export button should not be shown at the start of program or clicking on reset should hide the export button as there is not data to export . It should only be made visible after user chooses the mode</t>
+  </si>
+  <si>
+    <t>Last few digits are shown,which is not very useful</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Currently, there is no use for it</t>
+  </si>
+  <si>
+    <t>Redundant input box. It would be better to remove it.</t>
+  </si>
+  <si>
+    <t>Current cycle is not relavent to manual mode since there are no cycles in manual mode.</t>
+  </si>
+  <si>
+    <t>Export button is shown without choosing any mode and clicking on it generates empty Exel file</t>
+  </si>
+  <si>
+    <t>Can't test because the load cell is not working right now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running the Python script </t>
+  </si>
+  <si>
+    <t>Running Python scripts without input files existing</t>
+  </si>
+  <si>
+    <t>Expected/Ideal behaviour</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -453,6 +450,17 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -486,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -525,6 +533,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -807,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1053"/>
+  <dimension ref="A1:X1052"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -838,13 +852,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -895,19 +909,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -935,13 +949,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -969,13 +983,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1003,13 +1017,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1037,16 +1051,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1073,16 +1087,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1109,13 +1123,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -1143,13 +1157,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
@@ -1170,23 +1184,23 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" ht="12.75">
+    <row r="11" spans="1:24" ht="25.5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>29</v>
+      <c r="E11" s="14" t="s">
+        <v>121</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
+      <c r="F11" s="15" t="s">
+        <v>120</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>30</v>
+      <c r="G11" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1213,13 +1227,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="3"/>
@@ -1247,13 +1261,13 @@
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
@@ -1305,19 +1319,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1345,13 +1359,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1379,13 +1393,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>41</v>
+      <c r="E17" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1413,13 +1427,13 @@
         <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1447,7 +1461,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="3"/>
@@ -1473,19 +1487,19 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1513,13 +1527,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1547,13 +1561,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1581,13 +1595,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1615,13 +1629,13 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1649,7 +1663,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="3"/>
@@ -1675,19 +1689,19 @@
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1715,13 +1729,13 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1749,13 +1763,13 @@
         <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1783,13 +1797,13 @@
         <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1817,13 +1831,13 @@
         <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1851,13 +1865,13 @@
         <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1878,20 +1892,20 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="1:24" ht="12.75">
+    <row r="32" spans="1:24" ht="25.5">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
         <v>7</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -1912,20 +1926,20 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="1:24" ht="12.75">
+    <row r="33" spans="1:24" ht="25.5">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
         <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -1953,13 +1967,13 @@
         <v>9</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -1987,13 +2001,13 @@
         <v>10</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -2021,13 +2035,13 @@
         <v>11</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -2055,13 +2069,13 @@
         <v>12</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -2113,19 +2127,19 @@
         <v>5</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -2153,13 +2167,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -2187,13 +2201,13 @@
         <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -2245,22 +2259,22 @@
         <v>6</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>80</v>
+      <c r="G43" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -2311,19 +2325,19 @@
         <v>7</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -2351,13 +2365,13 @@
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -2385,13 +2399,13 @@
         <v>3</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -2419,13 +2433,13 @@
         <v>4</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -2453,16 +2467,16 @@
         <v>5</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>91</v>
+      <c r="E49" s="14" t="s">
+        <v>123</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>19</v>
+      <c r="F49" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2489,13 +2503,13 @@
         <v>6</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -2523,13 +2537,13 @@
         <v>7</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2557,13 +2571,13 @@
         <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2591,13 +2605,13 @@
         <v>9</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2625,13 +2639,13 @@
         <v>10</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -2683,19 +2697,19 @@
         <v>7</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -2723,13 +2737,13 @@
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -2757,13 +2771,13 @@
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -2791,13 +2805,13 @@
         <v>3</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -2825,13 +2839,13 @@
         <v>4</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -2883,19 +2897,19 @@
         <v>8</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C62" s="4">
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -2923,13 +2937,13 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -2981,19 +2995,19 @@
         <v>9</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C65" s="4">
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -3021,13 +3035,13 @@
         <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -3048,23 +3062,23 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="1:24" ht="38.25">
+    <row r="67" spans="1:24" ht="51">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4">
         <v>3</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>121</v>
+      <c r="G67" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -3084,24 +3098,14 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="1:24" ht="38.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="4">
-        <v>4</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>121</v>
-      </c>
+    <row r="68" spans="1:24" ht="12.75">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -3121,13 +3125,25 @@
       <c r="X68" s="3"/>
     </row>
     <row r="69" spans="1:24" ht="12.75">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="A69" s="4">
+        <v>10</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -3146,26 +3162,24 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="1:24" ht="12.75">
-      <c r="A70" s="4">
-        <v>10</v>
+    <row r="70" spans="1:24" ht="25.5">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4">
+        <v>2</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="4">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>125</v>
+      <c r="D70" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>10</v>
+      <c r="F70" s="7" t="s">
+        <v>18</v>
       </c>
-      <c r="G70" s="3"/>
+      <c r="G70" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -3184,24 +3198,14 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" spans="1:24" ht="25.5">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="4">
-        <v>2</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>129</v>
-      </c>
+    <row r="71" spans="1:24" ht="12.75">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -3221,13 +3225,13 @@
       <c r="X71" s="3"/>
     </row>
     <row r="72" spans="1:24" ht="12.75">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -28726,33 +28730,8 @@
       <c r="W1052" s="3"/>
       <c r="X1052" s="3"/>
     </row>
-    <row r="1053" spans="1:24" ht="12.75">
-      <c r="A1053" s="3"/>
-      <c r="B1053" s="3"/>
-      <c r="C1053" s="3"/>
-      <c r="D1053" s="3"/>
-      <c r="E1053" s="3"/>
-      <c r="F1053" s="3"/>
-      <c r="G1053" s="3"/>
-      <c r="H1053" s="3"/>
-      <c r="I1053" s="3"/>
-      <c r="J1053" s="3"/>
-      <c r="K1053" s="3"/>
-      <c r="L1053" s="3"/>
-      <c r="M1053" s="3"/>
-      <c r="N1053" s="3"/>
-      <c r="O1053" s="3"/>
-      <c r="P1053" s="3"/>
-      <c r="Q1053" s="3"/>
-      <c r="R1053" s="3"/>
-      <c r="S1053" s="3"/>
-      <c r="T1053" s="3"/>
-      <c r="U1053" s="3"/>
-      <c r="V1053" s="3"/>
-      <c r="W1053" s="3"/>
-      <c r="X1053" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>